--- a/biology/Zoologie/Conure_de_Vieillot/Conure_de_Vieillot.xlsx
+++ b/biology/Zoologie/Conure_de_Vieillot/Conure_de_Vieillot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrrhura frontalis
-La Conure de Vieillot  (Pyrrhura frontalis) est une espèce d'oiseau appartenant à la famille des Psittacidae. Il est natif d'Amérique du Sud et a été introduit[1] aux États-Unis et au Canada.
+La Conure de Vieillot  (Pyrrhura frontalis) est une espèce d'oiseau appartenant à la famille des Psittacidae. Il est natif d'Amérique du Sud et a été introduit aux États-Unis et au Canada.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 26 cm. Son plumage est surtout vert. La poitrine jaune verdâtre et le plastron rouge sont marqués des écailles caractéristiques du genre. Les rectrices sont vert olive avec les extrémités et le dessous brun roux. Les rémiges sont nuancées de bleu azur. Les cercles orbitaux sont blancs, les iris et le bec noirs, les pattes grises.
 </t>
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par trois sous-espèces :
 P. frontalis frontalis ;
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente différents types de boisements avec une préférence pour les forêts d'araucaria. Par contre, il évite celles d'eucalyptus.
 </t>
@@ -607,7 +625,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se déplace le plus souvent en groupes de 10 à 40 individus.
 </t>
